--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,55 +22,70 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001856</t>
+  </si>
+  <si>
+    <t>920003</t>
+  </si>
+  <si>
+    <t>007689</t>
+  </si>
+  <si>
     <t>151001</t>
   </si>
   <si>
     <t>519672</t>
   </si>
   <si>
+    <t>002095</t>
+  </si>
+  <si>
+    <t>001704</t>
+  </si>
+  <si>
+    <t>007690</t>
+  </si>
+  <si>
+    <t>006736</t>
+  </si>
+  <si>
+    <t>920923</t>
+  </si>
+  <si>
+    <t>005211</t>
+  </si>
+  <si>
+    <t>002096</t>
+  </si>
+  <si>
     <t>006323</t>
   </si>
   <si>
     <t>006324</t>
   </si>
   <si>
-    <t>006736</t>
-  </si>
-  <si>
-    <t>001704</t>
-  </si>
-  <si>
-    <t>001856</t>
-  </si>
-  <si>
-    <t>002095</t>
-  </si>
-  <si>
-    <t>002096</t>
-  </si>
-  <si>
-    <t>005211</t>
-  </si>
-  <si>
-    <t>007689</t>
-  </si>
-  <si>
-    <t>007690</t>
-  </si>
-  <si>
-    <t>920003</t>
-  </si>
-  <si>
-    <t>920923</t>
+    <t>易方达环保主题灵活配置混合</t>
+  </si>
+  <si>
+    <t>中金新锐股票A</t>
+  </si>
+  <si>
+    <t>国投瑞银新能源混合A</t>
   </si>
   <si>
     <t>银河稳健混合</t>
@@ -79,40 +94,82 @@
     <t>银河蓝筹混合</t>
   </si>
   <si>
+    <t>博时新收益灵活配置混合A</t>
+  </si>
+  <si>
+    <t>国投瑞银进宝灵活配置混合</t>
+  </si>
+  <si>
+    <t>国投瑞银新能源混合C</t>
+  </si>
+  <si>
+    <t>国投瑞银先进制造混合</t>
+  </si>
+  <si>
+    <t>中金新锐股票C</t>
+  </si>
+  <si>
+    <t>银河智慧主题灵活配置混合</t>
+  </si>
+  <si>
+    <t>博时新收益灵活配置混合C</t>
+  </si>
+  <si>
     <t>合煦智远嘉选混合A</t>
   </si>
   <si>
     <t>合煦智远嘉选混合C</t>
   </si>
   <si>
-    <t>国投瑞银先进制造混合</t>
-  </si>
-  <si>
-    <t>国投瑞银进宝灵活配置混合</t>
-  </si>
-  <si>
-    <t>易方达环保主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>博时新收益灵活配置混合A</t>
-  </si>
-  <si>
-    <t>博时新收益灵活配置混合C</t>
-  </si>
-  <si>
-    <t>银河智慧主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>国投瑞银新能源混合A</t>
-  </si>
-  <si>
-    <t>国投瑞银新能源混合C</t>
-  </si>
-  <si>
-    <t>中金新锐股票A</t>
-  </si>
-  <si>
-    <t>中金新锐股票C</t>
+    <t>30.54</t>
+  </si>
+  <si>
+    <t>10.41</t>
+  </si>
+  <si>
+    <t>7.28</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>93.24</t>
+  </si>
+  <si>
+    <t>94.52</t>
+  </si>
+  <si>
+    <t>92.65</t>
   </si>
   <si>
     <t>71.02</t>
@@ -121,28 +178,28 @@
     <t>93.76</t>
   </si>
   <si>
+    <t>65.73</t>
+  </si>
+  <si>
+    <t>91.09</t>
+  </si>
+  <si>
+    <t>92.28</t>
+  </si>
+  <si>
+    <t>93.93</t>
+  </si>
+  <si>
     <t>79.29</t>
   </si>
   <si>
-    <t>92.28</t>
-  </si>
-  <si>
-    <t>91.09</t>
-  </si>
-  <si>
-    <t>93.24</t>
-  </si>
-  <si>
-    <t>65.73</t>
-  </si>
-  <si>
-    <t>93.93</t>
-  </si>
-  <si>
-    <t>92.65</t>
-  </si>
-  <si>
-    <t>94.52</t>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.84</t>
   </si>
   <si>
     <t>3.48</t>
@@ -151,28 +208,61 @@
     <t>4.17</t>
   </si>
   <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
     <t>3.21</t>
   </si>
   <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>7.89</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>6.84</t>
-  </si>
-  <si>
-    <t>5.78</t>
+    <t>1.2582</t>
+  </si>
+  <si>
+    <t>0.6017</t>
+  </si>
+  <si>
+    <t>0.4980</t>
+  </si>
+  <si>
+    <t>0.4350</t>
+  </si>
+  <si>
+    <t>0.3807</t>
+  </si>
+  <si>
+    <t>0.3401</t>
+  </si>
+  <si>
+    <t>0.2445</t>
+  </si>
+  <si>
+    <t>0.2421</t>
+  </si>
+  <si>
+    <t>0.2187</t>
+  </si>
+  <si>
+    <t>0.1035</t>
+  </si>
+  <si>
+    <t>0.0792</t>
+  </si>
+  <si>
+    <t>0.0631</t>
+  </si>
+  <si>
+    <t>0.0392</t>
+  </si>
+  <si>
+    <t>0.0199</t>
   </si>
 </sst>
 </file>
@@ -530,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,285 +642,375 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,1618 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1508</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3272,4 +3273,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3281,7 +3282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3292,17 +3293,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3312,14 +3333,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.85</v>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3328,14 +3371,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.47</v>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3344,13 +3409,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.85</v>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.47</v>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3607,13 +3694,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>18.85</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>3.47</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.52</v>
       </c>
     </row>
@@ -566,6 +583,1616 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +2552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2785,7 +4412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3411,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
+++ b/数据整理/stocks/A股/深证主板/003022-联泓新科.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.62</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>18.85</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>3.47</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.52</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2192,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2552,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4412,7 +4713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5038,7 +5339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
